--- a/test/src/SceneConfig.xlsx
+++ b/test/src/SceneConfig.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01593FE-C57C-4338-987F-DBB37282E42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AA0E73-69C3-4458-BE23-BEF39700E7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="A1:XFD1048576"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -565,7 +565,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
